--- a/src/test/resources/Documents/5744/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/5744/Actual/JobMaterial.xlsx
@@ -93,6 +93,15 @@
     <t>16910 - EB-180DC/120KB 1600 x 1200</t>
   </si>
   <si>
+    <t>EB-180DC/120KB 1200 x 1600 Supplier 1 - FSC 410 µ 1.200 x 1.600 mm</t>
+  </si>
+  <si>
+    <t>34.38</t>
+  </si>
+  <si>
+    <t>16912 - EB-180DC/120KB 1200 x 1600</t>
+  </si>
+  <si>
     <t>EB-150KW/150KW 1410 x 1010 Supplier 1 - FSC 4101 µ 1.410 x 1.010 mm</t>
   </si>
   <si>
@@ -100,15 +109,6 @@
   </si>
   <si>
     <t>4721 - EB-150KW/150KW 1410 x 1010</t>
-  </si>
-  <si>
-    <t>EB-180DC/120KB 1200 x 1600 Supplier 1 - FSC 410 µ 1.200 x 1.600 mm</t>
-  </si>
-  <si>
-    <t>34.38</t>
-  </si>
-  <si>
-    <t>16912 - EB-180DC/120KB 1200 x 1600</t>
   </si>
   <si>
     <t>EB-150KW/150KW 1010 X 1410 Supplier 1 - FSC 4101 µ 1.010 x 1.410 mm</t>
@@ -683,10 +683,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s" s="45">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s" s="46">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s" s="47">
         <v>22</v>
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="49">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -709,10 +709,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s" s="53">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="54">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="55">
         <v>22</v>
@@ -721,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="H8" t="s" s="57">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
